--- a/src/test/resources/testData/Product.xlsx
+++ b/src/test/resources/testData/Product.xlsx
@@ -41,34 +41,34 @@
     <t>Ürün Grup Kodu</t>
   </si>
   <si>
-    <t>150cf2ea-c968-4782-a466-be85deb5f11c</t>
+    <t>8091a8cf-0e6c-4381-b2ea-0e17a9e90b4b</t>
   </si>
   <si>
     <t>defaultAttributeTestFamily</t>
   </si>
   <si>
-    <t>3837198f-1e9c-4a4d-b21d-0607a450db39</t>
+    <t>46ef86ea-22cb-48e8-a0b4-a57bd08ccf46</t>
   </si>
   <si>
     <t>ROOT</t>
   </si>
   <si>
-    <t>4a8c3f09-9220-4679-8132-39ebf87c880a</t>
+    <t>3f391fe9-224c-4a58-a21e-030e759126f5</t>
   </si>
   <si>
     <t>Ürün</t>
   </si>
   <si>
-    <t>bdd419d6-41b2-4fe8-91fd-f051ba0d0385</t>
-  </si>
-  <si>
-    <t>757d6f5d-0daf-4f11-94b2-8a4c0142e626</t>
+    <t>06f8bec4-4ee1-4926-92db-b5b23e1cb843</t>
+  </si>
+  <si>
+    <t>2d977ddb-7cd4-4d81-af99-ae58e7a6e3d3</t>
   </si>
   <si>
     <t>SA075TEK0107</t>
   </si>
   <si>
-    <t>a8685d7e-97ad-486f-af2a-20067b1ed351</t>
+    <t>6997738c-e7db-4bd9-9623-552bde6b9784</t>
   </si>
   <si>
     <t>Event-08</t>
